--- a/biology/Botanique/Lafayette_Square_(Saint-Louis)/Lafayette_Square_(Saint-Louis).xlsx
+++ b/biology/Botanique/Lafayette_Square_(Saint-Louis)/Lafayette_Square_(Saint-Louis).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lafayette Square est un parc ainsi que le nom d'un quartier du centre de Saint-Louis, dans le Missouri, aux États-Unis. Ce nom fut choisi en l'honneur du marquis de Lafayette.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lafayette Square est le plus ancien jardin public de la ville de Saint-Louis. Il a été créé par ordonnance en 1836, quelques années après la visite du marquis de La Fayette aux États-Unis, en hommage à cette personnalité française de la Révolution américaine, mort en 1834. 
 Le parc Lafayette s'étend sur 12 hectares. Il est situé dans le quartier historique de la vieille ville de Saint-Louis datant de l'époque de la Louisiane française. Ce quartier est aujourd'hui un lieu résidentiel et protégé. 
